--- a/data/trans_dic/P15E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Edad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5698882305534383</v>
+        <v>0.5698882305534384</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6664040893130736</v>
+        <v>0.6664040893130735</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.6357019288461095</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3276234998325006</v>
+        <v>0.3595109837418453</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5347708215105507</v>
+        <v>0.5439354903421564</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.522058648662675</v>
+        <v>0.5244031689102846</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7822037108360608</v>
+        <v>0.7824381544742306</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7870640826821031</v>
+        <v>0.7831014675247461</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7458842177884878</v>
+        <v>0.7389122664468711</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.6862672379153506</v>
+        <v>0.6862672379153509</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7650586688722363</v>
+        <v>0.7650586688722365</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.7422990238962177</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.544395401025114</v>
+        <v>0.5123762542346446</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6664122917472445</v>
+        <v>0.6728510067074003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6599886633552813</v>
+        <v>0.665304384288845</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8288150401983966</v>
+        <v>0.8218313234481651</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8321938576818249</v>
+        <v>0.8324956628941464</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8062829055980865</v>
+        <v>0.8055249116246396</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.6401745472237639</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7292012165671371</v>
+        <v>0.7292012165671372</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.702513263600106</v>
+        <v>0.7025132636001061</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4828359200218616</v>
+        <v>0.504242052078869</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6558374810420674</v>
+        <v>0.6591992303814431</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6389084942220862</v>
+        <v>0.6412783470582182</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7518346003207015</v>
+        <v>0.7634351258886519</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7902907998026882</v>
+        <v>0.7924149587477185</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7620444482468249</v>
+        <v>0.7643902439353749</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4944</v>
+        <v>5425</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17300</v>
+        <v>17596</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24767</v>
+        <v>24878</v>
       </c>
     </row>
     <row r="7">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11804</v>
+        <v>11808</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25462</v>
+        <v>25333</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>35385</v>
+        <v>35055</v>
       </c>
     </row>
     <row r="8">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12528</v>
+        <v>11791</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>37755</v>
+        <v>38120</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>52579</v>
+        <v>53003</v>
       </c>
     </row>
     <row r="11">
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19074</v>
+        <v>18913</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47147</v>
+        <v>47164</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64234</v>
+        <v>64174</v>
       </c>
     </row>
     <row r="12">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>18398</v>
+        <v>19214</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>58372</v>
+        <v>58671</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>81210</v>
+        <v>81512</v>
       </c>
     </row>
     <row r="15">
@@ -1015,13 +1015,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28648</v>
+        <v>29090</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>70339</v>
+        <v>70528</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>96862</v>
+        <v>97160</v>
       </c>
     </row>
     <row r="16">
